--- a/data/trans_orig/P33A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3E99C7-3998-4D2E-BCF8-14AD672F4186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4851D955-1D8C-4F85-A227-3CDFFFE00FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FE91160-C750-49E1-9302-E4522B6D1617}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9560ABAF-4AB4-4091-8C2A-DD2DB5D7237F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>79,88%</t>
+    <t>80,42%</t>
   </si>
   <si>
     <t>86,9%</t>
@@ -94,1330 +94,1360 @@
     <t>69,17%</t>
   </si>
   <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>22,61%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E037426-CA90-4153-A5DB-B0FEC552E909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81052245-E7C5-4E37-8E33-506D82C92F7B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2713,10 +2743,10 @@
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>200</v>
@@ -2725,13 +2755,13 @@
         <v>207177</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>421</v>
@@ -2740,13 +2770,13 @@
         <v>437257</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2791,13 @@
         <v>43902</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -2776,13 +2806,13 @@
         <v>71878</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2791,13 +2821,13 @@
         <v>115779</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,7 +2883,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2865,13 +2895,13 @@
         <v>562247</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>472</v>
@@ -2880,13 +2910,13 @@
         <v>515651</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>989</v>
@@ -2895,13 +2925,13 @@
         <v>1077898</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2946,13 @@
         <v>97631</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2931,13 +2961,13 @@
         <v>175953</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>261</v>
@@ -2946,13 +2976,13 @@
         <v>273584</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +3038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3050,13 @@
         <v>670999</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>610</v>
@@ -3035,13 +3065,13 @@
         <v>666071</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>1228</v>
@@ -3050,13 +3080,13 @@
         <v>1337070</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3101,13 @@
         <v>98209</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -3086,13 +3116,13 @@
         <v>144582</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -3101,7 +3131,7 @@
         <v>242791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>143</v>
@@ -3342,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0968EC8F-EDD6-45B3-96F5-65A1991ADF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0DDFBE-6F64-4AA2-929D-581125EB81FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4384,7 +4414,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4396,13 +4426,13 @@
         <v>536314</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>469</v>
@@ -4411,13 +4441,13 @@
         <v>501339</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -4426,13 +4456,13 @@
         <v>1037653</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4477,13 @@
         <v>113170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>172</v>
@@ -4462,13 +4492,13 @@
         <v>184804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>271</v>
@@ -4477,13 +4507,13 @@
         <v>297974</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,7 +4569,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4551,13 +4581,13 @@
         <v>641625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -4566,13 +4596,13 @@
         <v>606071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>1175</v>
@@ -4581,13 +4611,13 @@
         <v>1247697</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4632,13 @@
         <v>124501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>195</v>
@@ -4617,13 +4647,13 @@
         <v>215320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -4632,13 +4662,13 @@
         <v>339821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4736,13 @@
         <v>2826631</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>2433</v>
@@ -4721,13 +4751,13 @@
         <v>2576809</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>5131</v>
@@ -4736,13 +4766,13 @@
         <v>5403441</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4787,13 @@
         <v>531133</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>863</v>
@@ -4772,13 +4802,13 @@
         <v>921146</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>1362</v>
@@ -4787,13 +4817,13 @@
         <v>1452279</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFCA0CC-D22C-4BDB-91F1-3098578361D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC50678D-659C-435F-B98C-7BEE89F1C3FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4890,7 +4920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4997,13 +5027,13 @@
         <v>240788</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>460</v>
@@ -5012,13 +5042,13 @@
         <v>235520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>765</v>
@@ -5027,13 +5057,13 @@
         <v>476307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5078,13 @@
         <v>19510</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -5063,13 +5093,13 @@
         <v>35883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -5078,13 +5108,13 @@
         <v>55393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5182,13 @@
         <v>424749</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>508</v>
@@ -5167,13 +5197,13 @@
         <v>402355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>822</v>
@@ -5182,13 +5212,13 @@
         <v>827104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5233,13 @@
         <v>92248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -5218,13 +5248,13 @@
         <v>148525</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>270</v>
@@ -5233,13 +5263,13 @@
         <v>240773</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5337,13 @@
         <v>265487</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
@@ -5322,13 +5352,13 @@
         <v>300403</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>722</v>
@@ -5337,13 +5367,13 @@
         <v>565890</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5388,13 @@
         <v>54743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -5373,13 +5403,13 @@
         <v>71444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>170</v>
@@ -5388,13 +5418,13 @@
         <v>126187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5492,13 @@
         <v>252667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -5477,28 +5507,28 @@
         <v>305603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>641</v>
       </c>
       <c r="N13" s="7">
-        <v>558270</v>
+        <v>558269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5543,13 @@
         <v>68127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -5528,13 +5558,13 @@
         <v>119932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -5543,13 +5573,13 @@
         <v>188059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5621,7 @@
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>746329</v>
+        <v>746328</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>32</v>
@@ -5617,13 +5647,13 @@
         <v>179583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>425</v>
@@ -5632,13 +5662,13 @@
         <v>200426</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>678</v>
@@ -5647,13 +5677,13 @@
         <v>380010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5698,13 @@
         <v>16480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -5683,13 +5713,13 @@
         <v>29747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5698,13 +5728,13 @@
         <v>46226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5802,13 @@
         <v>223230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>321</v>
@@ -5790,10 +5820,10 @@
         <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -5802,13 +5832,13 @@
         <v>421517</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5853,13 @@
         <v>53993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -5841,10 +5871,10 @@
         <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>212</v>
@@ -5853,13 +5883,13 @@
         <v>131328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,7 +5945,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5927,13 +5957,13 @@
         <v>500340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>669</v>
@@ -5942,13 +5972,13 @@
         <v>596187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>1149</v>
@@ -5957,13 +5987,13 @@
         <v>1096527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +6008,13 @@
         <v>117234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>273</v>
@@ -5993,13 +6023,13 @@
         <v>189377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>384</v>
@@ -6008,13 +6038,13 @@
         <v>306611</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6100,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6082,13 +6112,13 @@
         <v>689105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>672</v>
@@ -6097,13 +6127,13 @@
         <v>591663</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>1236</v>
@@ -6112,13 +6142,13 @@
         <v>1280768</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6163,13 @@
         <v>170323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -6148,13 +6178,13 @@
         <v>274009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
@@ -6163,13 +6193,13 @@
         <v>444332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6267,13 @@
         <v>2775948</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>3895</v>
@@ -6252,13 +6282,13 @@
         <v>2830446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>6632</v>
@@ -6267,13 +6297,13 @@
         <v>5606394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6318,13 @@
         <v>592658</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>1437</v>
@@ -6303,13 +6333,13 @@
         <v>946250</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>2062</v>
@@ -6318,13 +6348,13 @@
         <v>1538908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4851D955-1D8C-4F85-A227-3CDFFFE00FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE198A79-8C02-4888-A3FF-BE6BE26A2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9560ABAF-4AB4-4091-8C2A-DD2DB5D7237F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED65EAFF-AD7E-49DB-B865-637DC7C892B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="468">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -85,55 +85,49 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>79,16%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>20,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +139,55 @@
     <t>85,84%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +196,55 @@
     <t>81,51%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,1134 +253,1140 @@
     <t>88,46%</t>
   </si>
   <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>70,97%</t>
   </si>
   <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
     <t>34,69%</t>
   </si>
   <si>
@@ -1399,9 +1399,6 @@
     <t>82,41%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
     <t>83,89%</t>
   </si>
   <si>
@@ -1427,9 +1424,6 @@
   </si>
   <si>
     <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
   </si>
   <si>
     <t>25,05%</t>
@@ -1859,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81052245-E7C5-4E37-8E33-506D82C92F7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABFA194-11A1-4A60-9B23-53B69A1C2A2D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2153,10 +2147,10 @@
         <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2165,13 @@
         <v>81646</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>145</v>
@@ -2186,13 +2180,13 @@
         <v>160497</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2201,13 +2195,13 @@
         <v>242144</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2216,13 @@
         <v>498187</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>477</v>
@@ -2237,13 +2231,13 @@
         <v>520509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>942</v>
@@ -2252,18 +2246,18 @@
         <v>1018696</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2275,13 +2269,13 @@
         <v>275596</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>236</v>
@@ -2290,13 +2284,13 @@
         <v>255814</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -2305,13 +2299,13 @@
         <v>531410</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2320,13 @@
         <v>45444</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -2341,13 +2335,13 @@
         <v>85206</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -2356,13 +2350,13 @@
         <v>130650</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2371,13 @@
         <v>321040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2392,13 +2386,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -2407,18 +2401,18 @@
         <v>662060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2430,13 +2424,13 @@
         <v>544286</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>397</v>
@@ -2445,13 +2439,13 @@
         <v>431859</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>909</v>
@@ -2460,13 +2454,13 @@
         <v>976145</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2475,13 @@
         <v>123482</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -2496,13 +2490,13 @@
         <v>237483</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -2511,13 +2505,13 @@
         <v>360965</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2526,13 @@
         <v>667768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>620</v>
@@ -2547,13 +2541,13 @@
         <v>669342</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1245</v>
@@ -2562,18 +2556,18 @@
         <v>1337110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2579,13 @@
         <v>187152</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -2600,13 +2594,13 @@
         <v>153301</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>320</v>
@@ -2615,13 +2609,13 @@
         <v>340454</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2630,13 @@
         <v>24424</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2651,13 +2645,13 @@
         <v>66290</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -2666,13 +2660,13 @@
         <v>90713</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2681,13 @@
         <v>211576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2702,13 +2696,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>407</v>
@@ -2717,18 +2711,18 @@
         <v>431167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2740,13 +2734,13 @@
         <v>230079</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>200</v>
@@ -2755,13 +2749,13 @@
         <v>207177</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>421</v>
@@ -2770,13 +2764,13 @@
         <v>437257</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2785,13 @@
         <v>43902</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -2842,13 +2836,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2857,13 +2851,13 @@
         <v>279055</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2872,13 +2866,13 @@
         <v>553036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +2991,13 @@
         <v>659878</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>634</v>
@@ -3012,13 +3006,13 @@
         <v>691604</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1250</v>
@@ -3027,13 +3021,13 @@
         <v>1351482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3059,13 @@
         <v>666071</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>1228</v>
@@ -3080,13 +3074,13 @@
         <v>1337070</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3095,13 @@
         <v>98209</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -3116,13 +3110,13 @@
         <v>144582</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -3131,13 +3125,13 @@
         <v>242791</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3146,13 @@
         <v>769208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>744</v>
@@ -3167,13 +3161,13 @@
         <v>810653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1451</v>
@@ -3182,13 +3176,13 @@
         <v>1579861</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3199,13 @@
         <v>2886901</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>2396</v>
@@ -3220,13 +3214,13 @@
         <v>2589885</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>5093</v>
@@ -3235,13 +3229,13 @@
         <v>5476786</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3250,13 @@
         <v>514737</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>876</v>
@@ -3271,13 +3265,13 @@
         <v>941889</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>1364</v>
@@ -3286,13 +3280,13 @@
         <v>1456626</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3301,13 @@
         <v>3401638</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3272</v>
@@ -3322,13 +3316,13 @@
         <v>3531774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6457</v>
@@ -3337,18 +3331,18 @@
         <v>6933412</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0DDFBE-6F64-4AA2-929D-581125EB81FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93964AF7-8C2C-494A-A1F7-075673C2D22F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3389,7 +3383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3496,13 +3490,13 @@
         <v>224553</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -3511,13 +3505,13 @@
         <v>179821</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -3526,13 +3520,13 @@
         <v>404373</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3541,13 @@
         <v>66209</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -3562,13 +3556,13 @@
         <v>104310</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3577,13 +3571,13 @@
         <v>170520</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3592,13 @@
         <v>290762</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>273</v>
@@ -3613,13 +3607,13 @@
         <v>284131</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>536</v>
@@ -3628,13 +3622,13 @@
         <v>574893</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3645,13 @@
         <v>463298</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>394</v>
@@ -3666,13 +3660,13 @@
         <v>425310</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>832</v>
@@ -3681,13 +3675,13 @@
         <v>888608</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3696,13 @@
         <v>38258</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -3717,13 +3711,13 @@
         <v>93021</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -3732,13 +3726,13 @@
         <v>131279</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3747,13 @@
         <v>501556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -3768,13 +3762,13 @@
         <v>518331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>954</v>
@@ -3783,18 +3777,18 @@
         <v>1019887</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3800,13 @@
         <v>285630</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -3821,13 +3815,13 @@
         <v>258530</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -3836,13 +3830,13 @@
         <v>544159</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3851,13 @@
         <v>27859</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -3872,13 +3866,13 @@
         <v>67914</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3887,13 +3881,13 @@
         <v>95773</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3902,13 @@
         <v>313489</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>323</v>
@@ -3923,13 +3917,13 @@
         <v>326444</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>653</v>
@@ -3938,18 +3932,18 @@
         <v>639932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3961,13 +3955,13 @@
         <v>294605</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3976,13 +3970,13 @@
         <v>245048</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -3991,13 +3985,13 @@
         <v>539654</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4006,13 @@
         <v>74546</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -4027,13 +4021,13 @@
         <v>135925</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>197</v>
@@ -4042,13 +4036,13 @@
         <v>210470</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4057,13 @@
         <v>369151</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>353</v>
@@ -4078,13 +4072,13 @@
         <v>380973</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>706</v>
@@ -4093,18 +4087,18 @@
         <v>750124</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4110,13 @@
         <v>162469</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4131,13 +4125,13 @@
         <v>167904</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>334</v>
@@ -4146,13 +4140,13 @@
         <v>330374</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4161,13 @@
         <v>47791</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4182,13 +4176,13 @@
         <v>49702</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4197,13 +4191,13 @@
         <v>97493</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4212,13 @@
         <v>210260</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -4233,13 +4227,13 @@
         <v>217606</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>433</v>
@@ -4248,18 +4242,18 @@
         <v>427867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4271,13 +4265,13 @@
         <v>218137</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -4286,13 +4280,13 @@
         <v>192786</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>401</v>
@@ -4301,13 +4295,13 @@
         <v>410923</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4316,13 @@
         <v>38799</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4337,13 +4331,13 @@
         <v>70150</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -4352,13 +4346,13 @@
         <v>108949</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4367,13 @@
         <v>256936</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>253</v>
@@ -4388,13 +4382,13 @@
         <v>262936</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>506</v>
@@ -4403,13 +4397,13 @@
         <v>519872</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4420,13 @@
         <v>536314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>469</v>
@@ -4441,13 +4435,13 @@
         <v>501339</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -4456,10 +4450,10 @@
         <v>1037653</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>279</v>
@@ -4477,13 +4471,13 @@
         <v>113170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>172</v>
@@ -4492,13 +4486,13 @@
         <v>184804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>271</v>
@@ -4507,13 +4501,13 @@
         <v>297974</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4522,13 @@
         <v>649484</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>641</v>
@@ -4543,13 +4537,13 @@
         <v>686143</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1215</v>
@@ -4558,13 +4552,13 @@
         <v>1335627</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4575,13 @@
         <v>641625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -4596,13 +4590,13 @@
         <v>606071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>1175</v>
@@ -4611,13 +4605,13 @@
         <v>1247697</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4626,13 @@
         <v>124501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>195</v>
@@ -4647,13 +4641,13 @@
         <v>215320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -4662,13 +4656,13 @@
         <v>339821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4677,13 @@
         <v>766126</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>751</v>
@@ -4698,13 +4692,13 @@
         <v>821391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1490</v>
@@ -4713,13 +4707,13 @@
         <v>1587518</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4730,13 @@
         <v>2826631</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>2433</v>
@@ -4751,13 +4745,13 @@
         <v>2576809</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>5131</v>
@@ -4766,13 +4760,13 @@
         <v>5403441</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4781,13 @@
         <v>531133</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>863</v>
@@ -4802,13 +4796,13 @@
         <v>921146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>1362</v>
@@ -4817,13 +4811,13 @@
         <v>1452279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4832,13 @@
         <v>3357764</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -4853,13 +4847,13 @@
         <v>3497955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6493</v>
@@ -4868,18 +4862,18 @@
         <v>6855720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +4897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC50678D-659C-435F-B98C-7BEE89F1C3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66F1DF9-EEA7-48C1-B3DF-FB592C6F27A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4920,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5027,13 +5021,13 @@
         <v>240788</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>460</v>
@@ -5042,13 +5036,13 @@
         <v>235520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>765</v>
@@ -5057,13 +5051,13 @@
         <v>476307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5072,13 @@
         <v>19510</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -5093,13 +5087,13 @@
         <v>35883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -5108,13 +5102,13 @@
         <v>55393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5123,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -5144,13 +5138,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -5159,13 +5153,13 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5176,13 @@
         <v>424749</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>508</v>
@@ -5197,13 +5191,13 @@
         <v>402355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>822</v>
@@ -5212,13 +5206,13 @@
         <v>827104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5227,13 @@
         <v>92248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -5248,13 +5242,13 @@
         <v>148525</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>270</v>
@@ -5263,13 +5257,13 @@
         <v>240773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5278,13 @@
         <v>516997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>712</v>
@@ -5299,13 +5293,13 @@
         <v>550880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1092</v>
@@ -5314,18 +5308,18 @@
         <v>1067877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5337,13 +5331,13 @@
         <v>265487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
@@ -5352,13 +5346,13 @@
         <v>300403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>722</v>
@@ -5367,13 +5361,13 @@
         <v>565890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5382,13 @@
         <v>54743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -5403,13 +5397,13 @@
         <v>71444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>170</v>
@@ -5418,13 +5412,13 @@
         <v>126187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5433,13 @@
         <v>320230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>534</v>
@@ -5454,13 +5448,13 @@
         <v>371847</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>892</v>
@@ -5469,18 +5463,18 @@
         <v>692077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5492,13 +5486,13 @@
         <v>252667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -5507,13 +5501,13 @@
         <v>305603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>641</v>
@@ -5522,13 +5516,13 @@
         <v>558269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5537,13 @@
         <v>68127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -5558,13 +5552,13 @@
         <v>119932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -5573,7 +5567,7 @@
         <v>188059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>388</v>
@@ -5594,13 +5588,13 @@
         <v>320794</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>595</v>
@@ -5609,13 +5603,13 @@
         <v>425535</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>886</v>
@@ -5624,18 +5618,18 @@
         <v>746328</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5749,13 +5743,13 @@
         <v>196063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -5764,13 +5758,13 @@
         <v>230173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
@@ -5779,18 +5773,18 @@
         <v>426236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5817,7 +5811,7 @@
         <v>198287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>411</v>
@@ -5838,7 +5832,7 @@
         <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5862,7 @@
         <v>77335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>418</v>
@@ -5886,7 +5880,7 @@
         <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>421</v>
@@ -5904,13 +5898,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -5919,13 +5913,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -5934,13 +5928,13 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,10 +5954,10 @@
         <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>669</v>
@@ -5972,13 +5966,13 @@
         <v>596187</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>1149</v>
@@ -5987,13 +5981,13 @@
         <v>1096527</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6002,13 @@
         <v>117234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>273</v>
@@ -6023,13 +6017,13 @@
         <v>189377</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>384</v>
@@ -6038,13 +6032,13 @@
         <v>306611</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6053,13 @@
         <v>617574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>942</v>
@@ -6074,13 +6068,13 @@
         <v>785564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1533</v>
@@ -6089,13 +6083,13 @@
         <v>1403138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6106,13 @@
         <v>689105</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>672</v>
@@ -6127,13 +6121,13 @@
         <v>591663</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M25" s="7">
         <v>1236</v>
@@ -6142,13 +6136,13 @@
         <v>1280768</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6157,13 @@
         <v>170323</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -6178,10 +6172,10 @@
         <v>274009</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>449</v>
@@ -6214,13 +6208,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -6229,13 +6223,13 @@
         <v>865672</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
@@ -6244,13 +6238,13 @@
         <v>1725100</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,10 +6264,10 @@
         <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>3895</v>
@@ -6282,13 +6276,13 @@
         <v>2830446</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>6632</v>
@@ -6297,13 +6291,13 @@
         <v>5606394</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6312,13 @@
         <v>592658</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>462</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>1437</v>
@@ -6333,13 +6327,13 @@
         <v>946250</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>2062</v>
@@ -6348,13 +6342,13 @@
         <v>1538908</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6363,13 @@
         <v>3368606</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5332</v>
@@ -6384,13 +6378,13 @@
         <v>3776696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8694</v>
@@ -6399,18 +6393,18 @@
         <v>7145302</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE198A79-8C02-4888-A3FF-BE6BE26A2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E06E3F8-34AB-4EE5-A7CB-3C9E13B9DB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED65EAFF-AD7E-49DB-B865-637DC7C892B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AC077F6-E05A-40C4-BE65-0C2D21A2A22C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="460">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,49 +85,55 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>79,16%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>20,84%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,1309 +145,1279 @@
     <t>85,84%</t>
   </si>
   <si>
-    <t>81,8%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>71,25%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>28,75%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>78,46%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>77,39%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>22,61%</t>
   </si>
 </sst>
 </file>
@@ -1853,7 +1829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABFA194-11A1-4A60-9B23-53B69A1C2A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F29C4D0-4873-4C8B-ABDF-83807C1BF926}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2147,10 +2123,10 @@
         <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2141,13 @@
         <v>81646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>145</v>
@@ -2180,13 +2156,13 @@
         <v>160497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2195,13 +2171,13 @@
         <v>242144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2192,13 @@
         <v>498187</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>477</v>
@@ -2231,13 +2207,13 @@
         <v>520509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>942</v>
@@ -2246,18 +2222,18 @@
         <v>1018696</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2269,13 +2245,13 @@
         <v>275596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>236</v>
@@ -2284,13 +2260,13 @@
         <v>255814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -2299,13 +2275,13 @@
         <v>531410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2296,13 @@
         <v>45444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -2335,13 +2311,13 @@
         <v>85206</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -2350,13 +2326,13 @@
         <v>130650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2347,13 @@
         <v>321040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2386,13 +2362,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -2401,18 +2377,18 @@
         <v>662060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2424,13 +2400,13 @@
         <v>544286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>397</v>
@@ -2439,13 +2415,13 @@
         <v>431859</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>909</v>
@@ -2454,13 +2430,13 @@
         <v>976145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2451,13 @@
         <v>123482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>223</v>
@@ -2490,13 +2466,13 @@
         <v>237483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -2505,13 +2481,13 @@
         <v>360965</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2502,13 @@
         <v>667768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>620</v>
@@ -2541,13 +2517,13 @@
         <v>669342</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>1245</v>
@@ -2556,18 +2532,18 @@
         <v>1337110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2579,13 +2555,13 @@
         <v>187152</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -2594,13 +2570,13 @@
         <v>153301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>320</v>
@@ -2609,13 +2585,13 @@
         <v>340454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2606,13 @@
         <v>24424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2645,13 +2621,13 @@
         <v>66290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -2660,13 +2636,13 @@
         <v>90713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2657,13 @@
         <v>211576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2696,13 +2672,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>407</v>
@@ -2711,18 +2687,18 @@
         <v>431167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2734,13 +2710,13 @@
         <v>230079</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>200</v>
@@ -2749,13 +2725,13 @@
         <v>207177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>421</v>
@@ -2764,13 +2740,13 @@
         <v>437257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2761,13 @@
         <v>43902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -2800,13 +2776,13 @@
         <v>71878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2815,13 +2791,13 @@
         <v>115779</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2812,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2851,13 +2827,13 @@
         <v>279055</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2866,18 +2842,18 @@
         <v>553036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2889,13 +2865,13 @@
         <v>562247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>472</v>
@@ -2904,13 +2880,13 @@
         <v>515651</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>989</v>
@@ -2919,13 +2895,13 @@
         <v>1077898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2916,13 @@
         <v>97631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2955,13 +2931,13 @@
         <v>175953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>261</v>
@@ -2970,13 +2946,13 @@
         <v>273584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2967,13 @@
         <v>659878</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>634</v>
@@ -3006,13 +2982,13 @@
         <v>691604</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1250</v>
@@ -3021,18 +2997,18 @@
         <v>1351482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3020,13 @@
         <v>670999</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>610</v>
@@ -3059,13 +3035,13 @@
         <v>666071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>1228</v>
@@ -3074,13 +3050,13 @@
         <v>1337070</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3071,13 @@
         <v>98209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -3110,13 +3086,13 @@
         <v>144582</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -3125,13 +3101,13 @@
         <v>242791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3122,13 @@
         <v>769208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>744</v>
@@ -3161,13 +3137,13 @@
         <v>810653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1451</v>
@@ -3176,13 +3152,13 @@
         <v>1579861</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3175,13 @@
         <v>2886901</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>2396</v>
@@ -3214,13 +3190,13 @@
         <v>2589885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>5093</v>
@@ -3229,13 +3205,13 @@
         <v>5476786</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3226,13 @@
         <v>514737</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>876</v>
@@ -3265,13 +3241,13 @@
         <v>941889</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>1364</v>
@@ -3280,13 +3256,13 @@
         <v>1456626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3277,13 @@
         <v>3401638</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>3272</v>
@@ -3316,13 +3292,13 @@
         <v>3531774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>6457</v>
@@ -3331,18 +3307,18 @@
         <v>6933412</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93964AF7-8C2C-494A-A1F7-075673C2D22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D3458-77B3-4BD8-B990-4315B63D7D00}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3490,13 +3466,13 @@
         <v>224553</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -3505,13 +3481,13 @@
         <v>179821</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -3520,13 +3496,13 @@
         <v>404373</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3517,13 @@
         <v>66209</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -3556,13 +3532,13 @@
         <v>104310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3571,13 +3547,13 @@
         <v>170520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3568,13 @@
         <v>290762</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>273</v>
@@ -3607,13 +3583,13 @@
         <v>284131</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>536</v>
@@ -3622,13 +3598,13 @@
         <v>574893</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3621,13 @@
         <v>463298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>394</v>
@@ -3660,13 +3636,13 @@
         <v>425310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>832</v>
@@ -3675,13 +3651,13 @@
         <v>888608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3672,13 @@
         <v>38258</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -3711,13 +3687,13 @@
         <v>93021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -3726,13 +3702,13 @@
         <v>131279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3723,13 @@
         <v>501556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -3762,13 +3738,13 @@
         <v>518331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>954</v>
@@ -3777,18 +3753,18 @@
         <v>1019887</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3800,13 +3776,13 @@
         <v>285630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -3815,13 +3791,13 @@
         <v>258530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -3830,13 +3806,13 @@
         <v>544159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3827,13 @@
         <v>27859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -3866,13 +3842,13 @@
         <v>67914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3881,13 +3857,13 @@
         <v>95773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3878,13 @@
         <v>313489</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>323</v>
@@ -3917,13 +3893,13 @@
         <v>326444</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>653</v>
@@ -3932,18 +3908,18 @@
         <v>639932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3955,13 +3931,13 @@
         <v>294605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3970,13 +3946,13 @@
         <v>245048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -3985,13 +3961,13 @@
         <v>539654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3982,13 @@
         <v>74546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -4021,13 +3997,13 @@
         <v>135925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>197</v>
@@ -4036,13 +4012,13 @@
         <v>210470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4033,13 @@
         <v>369151</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>353</v>
@@ -4072,13 +4048,13 @@
         <v>380973</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>706</v>
@@ -4087,18 +4063,18 @@
         <v>750124</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4110,13 +4086,13 @@
         <v>162469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4125,13 +4101,13 @@
         <v>167904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>334</v>
@@ -4140,13 +4116,13 @@
         <v>330374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4137,13 @@
         <v>47791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4176,13 +4152,13 @@
         <v>49702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4191,13 +4167,13 @@
         <v>97493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4188,13 @@
         <v>210260</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -4227,13 +4203,13 @@
         <v>217606</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>433</v>
@@ -4242,18 +4218,18 @@
         <v>427867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4265,13 +4241,13 @@
         <v>218137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -4280,13 +4256,13 @@
         <v>192786</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>401</v>
@@ -4295,13 +4271,13 @@
         <v>410923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4292,13 @@
         <v>38799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4331,13 +4307,13 @@
         <v>70150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -4346,13 +4322,13 @@
         <v>108949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4343,13 @@
         <v>256936</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>253</v>
@@ -4382,13 +4358,13 @@
         <v>262936</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>506</v>
@@ -4397,18 +4373,18 @@
         <v>519872</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4420,13 +4396,13 @@
         <v>536314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>469</v>
@@ -4435,13 +4411,13 @@
         <v>501339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -4450,13 +4426,13 @@
         <v>1037653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4447,13 @@
         <v>113170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>172</v>
@@ -4486,13 +4462,13 @@
         <v>184804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>271</v>
@@ -4501,13 +4477,13 @@
         <v>297974</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4498,13 @@
         <v>649484</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>641</v>
@@ -4537,13 +4513,13 @@
         <v>686143</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1215</v>
@@ -4552,18 +4528,18 @@
         <v>1335627</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4575,13 +4551,13 @@
         <v>641625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -4590,13 +4566,13 @@
         <v>606071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>1175</v>
@@ -4605,7 +4581,7 @@
         <v>1247697</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>296</v>
@@ -4647,7 +4623,7 @@
         <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -4656,13 +4632,13 @@
         <v>339821</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4653,13 @@
         <v>766126</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>751</v>
@@ -4692,13 +4668,13 @@
         <v>821391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1490</v>
@@ -4707,13 +4683,13 @@
         <v>1587518</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4706,13 @@
         <v>2826631</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>2433</v>
@@ -4745,13 +4721,13 @@
         <v>2576809</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>5131</v>
@@ -4760,13 +4736,13 @@
         <v>5403441</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4757,13 @@
         <v>531133</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>863</v>
@@ -4796,13 +4772,13 @@
         <v>921146</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>1362</v>
@@ -4811,13 +4787,13 @@
         <v>1452279</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4808,13 @@
         <v>3357764</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -4847,13 +4823,13 @@
         <v>3497955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>6493</v>
@@ -4862,18 +4838,18 @@
         <v>6855720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66F1DF9-EEA7-48C1-B3DF-FB592C6F27A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070092B2-C131-4E80-BA73-E3122D749F74}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4914,7 +4890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5021,13 +4997,13 @@
         <v>240788</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>460</v>
@@ -5036,13 +5012,13 @@
         <v>235520</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>765</v>
@@ -5051,13 +5027,13 @@
         <v>476307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5048,13 @@
         <v>19510</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -5087,13 +5063,13 @@
         <v>35883</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
@@ -5102,7 +5078,7 @@
         <v>55393</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>340</v>
@@ -5123,13 +5099,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -5138,13 +5114,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -5153,13 +5129,13 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5152,13 @@
         <v>424749</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>508</v>
@@ -5191,13 +5167,13 @@
         <v>402355</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>822</v>
@@ -5206,13 +5182,13 @@
         <v>827104</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5203,13 @@
         <v>92248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
@@ -5242,13 +5218,13 @@
         <v>148525</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>270</v>
@@ -5257,13 +5233,13 @@
         <v>240773</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5254,13 @@
         <v>516997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>712</v>
@@ -5293,13 +5269,13 @@
         <v>550880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>1092</v>
@@ -5308,18 +5284,18 @@
         <v>1067877</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5331,13 +5307,13 @@
         <v>265487</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
@@ -5346,13 +5322,13 @@
         <v>300403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>722</v>
@@ -5361,13 +5337,13 @@
         <v>565890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5358,13 @@
         <v>54743</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
@@ -5397,13 +5373,13 @@
         <v>71444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>170</v>
@@ -5412,13 +5388,13 @@
         <v>126187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5409,13 @@
         <v>320230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>534</v>
@@ -5448,13 +5424,13 @@
         <v>371847</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>892</v>
@@ -5463,18 +5439,18 @@
         <v>692077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5486,13 +5462,13 @@
         <v>252667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -5501,28 +5477,28 @@
         <v>305603</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>641</v>
       </c>
       <c r="N13" s="7">
-        <v>558269</v>
+        <v>558270</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5513,13 @@
         <v>68127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -5552,13 +5528,13 @@
         <v>119932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -5567,13 +5543,13 @@
         <v>188059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5564,13 @@
         <v>320794</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>595</v>
@@ -5603,33 +5579,33 @@
         <v>425535</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>746328</v>
+        <v>746329</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5641,13 +5617,13 @@
         <v>179583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>425</v>
@@ -5656,13 +5632,13 @@
         <v>200426</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>678</v>
@@ -5671,13 +5647,13 @@
         <v>380010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5668,13 @@
         <v>16480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -5707,13 +5683,13 @@
         <v>29747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -5722,13 +5698,13 @@
         <v>46226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5719,13 @@
         <v>196063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -5758,13 +5734,13 @@
         <v>230173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
@@ -5773,18 +5749,18 @@
         <v>426236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5796,13 +5772,13 @@
         <v>223230</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>321</v>
@@ -5811,13 +5787,13 @@
         <v>198287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
@@ -5826,13 +5802,13 @@
         <v>421517</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5823,13 @@
         <v>53993</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
@@ -5862,13 +5838,13 @@
         <v>77335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>212</v>
@@ -5877,13 +5853,13 @@
         <v>131328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5874,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -5913,13 +5889,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -5928,18 +5904,18 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5951,13 +5927,13 @@
         <v>500340</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>669</v>
@@ -5966,13 +5942,13 @@
         <v>596187</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>1149</v>
@@ -5981,13 +5957,13 @@
         <v>1096527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5978,13 @@
         <v>117234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>273</v>
@@ -6017,13 +5993,13 @@
         <v>189377</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>384</v>
@@ -6032,13 +6008,13 @@
         <v>306611</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6029,13 @@
         <v>617574</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>942</v>
@@ -6068,13 +6044,13 @@
         <v>785564</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>1533</v>
@@ -6083,18 +6059,18 @@
         <v>1403138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6106,13 +6082,13 @@
         <v>689105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>672</v>
@@ -6121,13 +6097,13 @@
         <v>591663</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>1236</v>
@@ -6136,13 +6112,13 @@
         <v>1280768</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6133,13 @@
         <v>170323</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
@@ -6172,13 +6148,13 @@
         <v>274009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
@@ -6187,13 +6163,13 @@
         <v>444332</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6184,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -6223,13 +6199,13 @@
         <v>865672</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
@@ -6238,13 +6214,13 @@
         <v>1725100</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6237,13 @@
         <v>2775948</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>3895</v>
@@ -6276,13 +6252,13 @@
         <v>2830446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>6632</v>
@@ -6291,13 +6267,13 @@
         <v>5606394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6288,13 @@
         <v>592658</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>251</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>1437</v>
@@ -6327,13 +6303,13 @@
         <v>946250</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>2062</v>
@@ -6342,13 +6318,13 @@
         <v>1538908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>228</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6339,13 @@
         <v>3368606</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>5332</v>
@@ -6378,13 +6354,13 @@
         <v>3776696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>8694</v>
@@ -6393,18 +6369,18 @@
         <v>7145302</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E06E3F8-34AB-4EE5-A7CB-3C9E13B9DB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A88AB4F-3AB3-4088-9950-7D77184BE05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3AC077F6-E05A-40C4-BE65-0C2D21A2A22C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB23DC14-62CB-4708-A9C8-214D0CBEADA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="497">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>26,64%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,58 +250,58 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -718,9 +769,6 @@
     <t>71,94%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
     <t>75,1%</t>
   </si>
   <si>
@@ -748,9 +796,6 @@
     <t>24,9%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
     <t>77,27%</t>
   </si>
   <si>
@@ -1012,412 +1057,478 @@
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F29C4D0-4873-4C8B-ABDF-83807C1BF926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E4626D-0F10-46C6-8C84-8ED8368154DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,88 +2058,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D4" s="7">
+        <v>252930</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="I4" s="7">
+        <v>202427</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>418</v>
+      </c>
+      <c r="N4" s="7">
+        <v>455357</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40856</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="I5" s="7">
+        <v>78899</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="N5" s="7">
+        <v>119755</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,48 +2160,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293786</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281326</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="N6" s="7">
+        <v>575112</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2219,13 @@
         <v>416541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>332</v>
@@ -2105,13 +2234,13 @@
         <v>360012</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>721</v>
@@ -2120,19 +2249,19 @@
         <v>776552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>76</v>
@@ -2141,13 +2270,13 @@
         <v>81646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>145</v>
@@ -2156,13 +2285,13 @@
         <v>160497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>221</v>
@@ -2171,13 +2300,13 @@
         <v>242144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2321,13 @@
         <v>498187</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>477</v>
@@ -2207,13 +2336,13 @@
         <v>520509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>942</v>
@@ -2222,18 +2351,18 @@
         <v>1018696</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2245,13 +2374,13 @@
         <v>275596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>236</v>
@@ -2260,13 +2389,13 @@
         <v>255814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -2275,19 +2404,19 @@
         <v>531410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>47</v>
@@ -2296,13 +2425,13 @@
         <v>45444</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -2311,13 +2440,13 @@
         <v>85206</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>128</v>
@@ -2326,13 +2455,13 @@
         <v>130650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2476,13 @@
         <v>321040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2362,13 +2491,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>633</v>
@@ -2377,117 +2506,117 @@
         <v>662060</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>512</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>544286</v>
+        <v>291356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>397</v>
+        <v>220</v>
       </c>
       <c r="I13" s="7">
-        <v>431859</v>
+        <v>229432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>909</v>
+        <v>491</v>
       </c>
       <c r="N13" s="7">
-        <v>976145</v>
+        <v>520788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>123482</v>
+        <v>82626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
+        <v>150</v>
+      </c>
+      <c r="I14" s="7">
+        <v>158584</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="7">
         <v>223</v>
       </c>
-      <c r="I14" s="7">
-        <v>237483</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="7">
-        <v>336</v>
-      </c>
       <c r="N14" s="7">
-        <v>360965</v>
+        <v>241210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,54 +2625,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>667768</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>669342</v>
+        <v>388016</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1245</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1337110</v>
+        <v>761998</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2555,13 +2684,13 @@
         <v>187152</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -2570,13 +2699,13 @@
         <v>153301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>320</v>
@@ -2585,19 +2714,19 @@
         <v>340454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>24</v>
@@ -2606,13 +2735,13 @@
         <v>24424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -2621,13 +2750,13 @@
         <v>66290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -2636,13 +2765,13 @@
         <v>90713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2786,13 @@
         <v>211576</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2672,13 +2801,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>407</v>
@@ -2687,18 +2816,18 @@
         <v>431167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2710,13 +2839,13 @@
         <v>230079</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>200</v>
@@ -2725,13 +2854,13 @@
         <v>207177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>421</v>
@@ -2740,19 +2869,19 @@
         <v>437257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>40</v>
@@ -2761,13 +2890,13 @@
         <v>43902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -2776,13 +2905,13 @@
         <v>71878</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -2791,13 +2920,13 @@
         <v>115779</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2941,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2827,13 +2956,13 @@
         <v>279055</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2842,18 +2971,18 @@
         <v>553036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2865,13 +2994,13 @@
         <v>562247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>472</v>
@@ -2880,13 +3009,13 @@
         <v>515651</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>989</v>
@@ -2895,19 +3024,19 @@
         <v>1077898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>99</v>
@@ -2916,13 +3045,13 @@
         <v>97631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -2931,13 +3060,13 @@
         <v>175953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>261</v>
@@ -2946,13 +3075,13 @@
         <v>273584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +3096,13 @@
         <v>659878</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>634</v>
@@ -2982,13 +3111,13 @@
         <v>691604</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1250</v>
@@ -2997,18 +3126,18 @@
         <v>1351482</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3149,13 @@
         <v>670999</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>610</v>
@@ -3035,13 +3164,13 @@
         <v>666071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1228</v>
@@ -3050,19 +3179,19 @@
         <v>1337070</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>89</v>
@@ -3071,13 +3200,13 @@
         <v>98209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -3086,13 +3215,13 @@
         <v>144582</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>223</v>
@@ -3101,13 +3230,13 @@
         <v>242791</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3251,13 @@
         <v>769208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>744</v>
@@ -3137,13 +3266,13 @@
         <v>810653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1451</v>
@@ -3152,13 +3281,13 @@
         <v>1579861</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3304,13 @@
         <v>2886901</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>2396</v>
@@ -3190,13 +3319,13 @@
         <v>2589885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>5093</v>
@@ -3205,19 +3334,19 @@
         <v>5476786</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>488</v>
@@ -3226,13 +3355,13 @@
         <v>514737</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>876</v>
@@ -3241,13 +3370,13 @@
         <v>941889</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1364</v>
@@ -3256,13 +3385,13 @@
         <v>1456626</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3406,13 @@
         <v>3401638</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3272</v>
@@ -3292,13 +3421,13 @@
         <v>3531774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6457</v>
@@ -3307,18 +3436,18 @@
         <v>6933412</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861D3458-77B3-4BD8-B990-4315B63D7D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A72C7C-5B81-40B2-BAF8-989026D10D62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3466,13 +3595,13 @@
         <v>224553</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>174</v>
@@ -3481,13 +3610,13 @@
         <v>179821</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -3496,19 +3625,19 @@
         <v>404373</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>58</v>
@@ -3517,13 +3646,13 @@
         <v>66209</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -3532,13 +3661,13 @@
         <v>104310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3547,13 +3676,13 @@
         <v>170520</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3697,13 @@
         <v>290762</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>273</v>
@@ -3583,13 +3712,13 @@
         <v>284131</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>536</v>
@@ -3598,18 +3727,18 @@
         <v>574893</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3621,13 +3750,13 @@
         <v>463298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>394</v>
@@ -3636,13 +3765,13 @@
         <v>425310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>832</v>
@@ -3651,19 +3780,19 @@
         <v>888608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>36</v>
@@ -3672,13 +3801,13 @@
         <v>38258</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -3687,13 +3816,13 @@
         <v>93021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>122</v>
@@ -3702,13 +3831,13 @@
         <v>131279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3852,13 @@
         <v>501556</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -3738,13 +3867,13 @@
         <v>518331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>954</v>
@@ -3753,18 +3882,18 @@
         <v>1019887</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3776,13 +3905,13 @@
         <v>285630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -3791,13 +3920,13 @@
         <v>258530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>557</v>
@@ -3806,19 +3935,19 @@
         <v>544159</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>29</v>
@@ -3827,13 +3956,13 @@
         <v>27859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>67</v>
@@ -3842,13 +3971,13 @@
         <v>67914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -3857,13 +3986,13 @@
         <v>95773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +4007,13 @@
         <v>313489</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>323</v>
@@ -3893,13 +4022,13 @@
         <v>326444</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>653</v>
@@ -3908,18 +4037,18 @@
         <v>639932</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3931,13 +4060,13 @@
         <v>294605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3946,13 +4075,13 @@
         <v>245048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -3961,19 +4090,19 @@
         <v>539654</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>70</v>
@@ -3982,13 +4111,13 @@
         <v>74546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -3997,13 +4126,13 @@
         <v>135925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>197</v>
@@ -4012,13 +4141,13 @@
         <v>210470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4162,13 @@
         <v>369151</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>353</v>
@@ -4048,13 +4177,13 @@
         <v>380973</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>706</v>
@@ -4063,18 +4192,18 @@
         <v>750124</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4083,16 +4212,16 @@
         <v>163</v>
       </c>
       <c r="D16" s="7">
-        <v>162469</v>
+        <v>162470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -4101,13 +4230,13 @@
         <v>167904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>334</v>
@@ -4116,19 +4245,19 @@
         <v>330374</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>48</v>
@@ -4137,13 +4266,13 @@
         <v>47791</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -4152,13 +4281,13 @@
         <v>49702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4167,13 +4296,13 @@
         <v>97493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,16 +4314,16 @@
         <v>211</v>
       </c>
       <c r="D18" s="7">
-        <v>210260</v>
+        <v>210261</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -4203,13 +4332,13 @@
         <v>217606</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>433</v>
@@ -4218,18 +4347,18 @@
         <v>427867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4241,13 +4370,13 @@
         <v>218137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -4256,13 +4385,13 @@
         <v>192786</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>401</v>
@@ -4271,19 +4400,19 @@
         <v>410923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>39</v>
@@ -4292,13 +4421,13 @@
         <v>38799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4307,13 +4436,13 @@
         <v>70150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>105</v>
@@ -4322,13 +4451,13 @@
         <v>108949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4472,13 @@
         <v>256936</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>253</v>
@@ -4358,13 +4487,13 @@
         <v>262936</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>506</v>
@@ -4373,18 +4502,18 @@
         <v>519872</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4396,13 +4525,13 @@
         <v>536314</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>469</v>
@@ -4411,13 +4540,13 @@
         <v>501339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>944</v>
@@ -4426,19 +4555,19 @@
         <v>1037653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>99</v>
@@ -4447,13 +4576,13 @@
         <v>113170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>172</v>
@@ -4462,13 +4591,13 @@
         <v>184804</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>271</v>
@@ -4477,13 +4606,13 @@
         <v>297974</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4627,13 @@
         <v>649484</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>641</v>
@@ -4513,13 +4642,13 @@
         <v>686143</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1215</v>
@@ -4528,18 +4657,18 @@
         <v>1335627</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4551,13 +4680,13 @@
         <v>641625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>556</v>
@@ -4566,13 +4695,13 @@
         <v>606071</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>1175</v>
@@ -4581,19 +4710,19 @@
         <v>1247697</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>120</v>
@@ -4602,13 +4731,13 @@
         <v>124501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>195</v>
@@ -4617,13 +4746,13 @@
         <v>215320</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>315</v>
@@ -4632,13 +4761,13 @@
         <v>339821</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4782,13 @@
         <v>766126</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>751</v>
@@ -4668,13 +4797,13 @@
         <v>821391</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1490</v>
@@ -4683,13 +4812,13 @@
         <v>1587518</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4835,13 @@
         <v>2826631</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>2433</v>
@@ -4721,34 +4850,34 @@
         <v>2576809</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>5131</v>
       </c>
       <c r="N28" s="7">
-        <v>5403441</v>
+        <v>5403440</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>499</v>
@@ -4757,13 +4886,13 @@
         <v>531133</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>863</v>
@@ -4772,13 +4901,13 @@
         <v>921146</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>1362</v>
@@ -4787,13 +4916,13 @@
         <v>1452279</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4937,13 @@
         <v>3357764</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -4823,33 +4952,33 @@
         <v>3497955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6493</v>
       </c>
       <c r="N30" s="7">
-        <v>6855720</v>
+        <v>6855719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4873,7 +5002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070092B2-C131-4E80-BA73-E3122D749F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA997F0-CB95-4473-A5A3-25F5F1B0C6D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4890,7 +5019,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4994,97 +5123,97 @@
         <v>305</v>
       </c>
       <c r="D4" s="7">
-        <v>240788</v>
+        <v>289267</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>460</v>
       </c>
       <c r="I4" s="7">
-        <v>235520</v>
+        <v>251889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>765</v>
       </c>
       <c r="N4" s="7">
-        <v>476307</v>
+        <v>541156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>19510</v>
+        <v>22176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>35883</v>
+        <v>37746</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>104</v>
       </c>
       <c r="N5" s="7">
-        <v>55393</v>
+        <v>59921</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,51 +5225,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5149,97 +5278,97 @@
         <v>314</v>
       </c>
       <c r="D7" s="7">
-        <v>424749</v>
+        <v>424895</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>508</v>
       </c>
       <c r="I7" s="7">
-        <v>402355</v>
+        <v>373642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>822</v>
       </c>
       <c r="N7" s="7">
-        <v>827104</v>
+        <v>798537</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>92248</v>
+        <v>91279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>204</v>
       </c>
       <c r="I8" s="7">
-        <v>148525</v>
+        <v>137906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>270</v>
       </c>
       <c r="N8" s="7">
-        <v>240773</v>
+        <v>229185</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,51 +5380,51 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>516997</v>
+        <v>516174</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>712</v>
       </c>
       <c r="I9" s="7">
-        <v>550880</v>
+        <v>511548</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1092</v>
       </c>
       <c r="N9" s="7">
-        <v>1067877</v>
+        <v>1027722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5304,97 +5433,97 @@
         <v>297</v>
       </c>
       <c r="D10" s="7">
-        <v>265487</v>
+        <v>260479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>425</v>
       </c>
       <c r="I10" s="7">
-        <v>300403</v>
+        <v>281201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>722</v>
       </c>
       <c r="N10" s="7">
-        <v>565890</v>
+        <v>541680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>54743</v>
+        <v>53586</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>71444</v>
+        <v>66577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>170</v>
       </c>
       <c r="N11" s="7">
-        <v>126187</v>
+        <v>120163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,51 +5535,51 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320230</v>
+        <v>314065</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371847</v>
+        <v>347778</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>892</v>
       </c>
       <c r="N12" s="7">
-        <v>692077</v>
+        <v>661843</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5459,97 +5588,97 @@
         <v>226</v>
       </c>
       <c r="D13" s="7">
-        <v>252667</v>
+        <v>245907</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
       </c>
       <c r="I13" s="7">
-        <v>305603</v>
+        <v>361914</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>641</v>
       </c>
       <c r="N13" s="7">
-        <v>558270</v>
+        <v>607821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>68127</v>
+        <v>65300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>119932</v>
+        <v>110962</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
       </c>
       <c r="N14" s="7">
-        <v>188059</v>
+        <v>176263</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,51 +5690,51 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>320794</v>
+        <v>311207</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>595</v>
       </c>
       <c r="I15" s="7">
-        <v>425535</v>
+        <v>472876</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>886</v>
       </c>
       <c r="N15" s="7">
-        <v>746329</v>
+        <v>784084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5614,97 +5743,97 @@
         <v>253</v>
       </c>
       <c r="D16" s="7">
-        <v>179583</v>
+        <v>163220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>425</v>
       </c>
       <c r="I16" s="7">
-        <v>200426</v>
+        <v>180581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>678</v>
       </c>
       <c r="N16" s="7">
-        <v>380010</v>
+        <v>343802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>16480</v>
+        <v>14908</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>29747</v>
+        <v>26631</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>46226</v>
+        <v>41538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,51 +5845,51 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196063</v>
+        <v>178128</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>230173</v>
+        <v>207212</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>426236</v>
+        <v>385340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5769,97 +5898,97 @@
         <v>298</v>
       </c>
       <c r="D19" s="7">
-        <v>223230</v>
+        <v>217570</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>321</v>
       </c>
       <c r="I19" s="7">
-        <v>198287</v>
+        <v>185050</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>619</v>
       </c>
       <c r="N19" s="7">
-        <v>421517</v>
+        <v>402620</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>73</v>
       </c>
       <c r="D20" s="7">
-        <v>53993</v>
+        <v>52066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>139</v>
       </c>
       <c r="I20" s="7">
-        <v>77335</v>
+        <v>72006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>212</v>
       </c>
       <c r="N20" s="7">
-        <v>131328</v>
+        <v>124072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,51 +6000,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5924,97 +6053,97 @@
         <v>480</v>
       </c>
       <c r="D22" s="7">
-        <v>500340</v>
+        <v>495092</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>669</v>
       </c>
       <c r="I22" s="7">
-        <v>596187</v>
+        <v>656152</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>1149</v>
       </c>
       <c r="N22" s="7">
-        <v>1096527</v>
+        <v>1151244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>453</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>117234</v>
+        <v>118974</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="H23" s="7">
         <v>273</v>
       </c>
       <c r="I23" s="7">
-        <v>189377</v>
+        <v>176377</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>384</v>
       </c>
       <c r="N23" s="7">
-        <v>306611</v>
+        <v>295351</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,51 +6155,51 @@
         <v>591</v>
       </c>
       <c r="D24" s="7">
-        <v>617574</v>
+        <v>614066</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>942</v>
       </c>
       <c r="I24" s="7">
-        <v>785564</v>
+        <v>832529</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1533</v>
       </c>
       <c r="N24" s="7">
-        <v>1403138</v>
+        <v>1446595</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6079,97 +6208,97 @@
         <v>564</v>
       </c>
       <c r="D25" s="7">
-        <v>689105</v>
+        <v>782752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="H25" s="7">
         <v>672</v>
       </c>
       <c r="I25" s="7">
-        <v>591663</v>
+        <v>485273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>1236</v>
       </c>
       <c r="N25" s="7">
-        <v>1280768</v>
+        <v>1268026</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>198</v>
       </c>
       <c r="D26" s="7">
-        <v>170323</v>
+        <v>145968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="H26" s="7">
         <v>389</v>
       </c>
       <c r="I26" s="7">
-        <v>274009</v>
+        <v>230119</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
       </c>
       <c r="N26" s="7">
-        <v>444332</v>
+        <v>376086</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,46 +6310,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,97 +6363,97 @@
         <v>2737</v>
       </c>
       <c r="D28" s="7">
-        <v>2775948</v>
+        <v>2879182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>32</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="H28" s="7">
         <v>3895</v>
       </c>
       <c r="I28" s="7">
-        <v>2830446</v>
+        <v>2775703</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>483</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="M28" s="7">
         <v>6632</v>
       </c>
       <c r="N28" s="7">
-        <v>5606394</v>
+        <v>5654885</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>625</v>
       </c>
       <c r="D29" s="7">
-        <v>592658</v>
+        <v>564257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>41</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
         <v>1437</v>
       </c>
       <c r="I29" s="7">
-        <v>946250</v>
+        <v>858323</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>2062</v>
       </c>
       <c r="N29" s="7">
-        <v>1538908</v>
+        <v>1422580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,51 +6465,51 @@
         <v>3362</v>
       </c>
       <c r="D30" s="7">
-        <v>3368606</v>
+        <v>3443439</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5332</v>
       </c>
       <c r="I30" s="7">
-        <v>3776696</v>
+        <v>3634026</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8694</v>
       </c>
       <c r="N30" s="7">
-        <v>7145302</v>
+        <v>7077465</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
